--- a/99 - 漫游1 - Weather Effects - 天气效果.xlsx
+++ b/99 - 漫游1 - Weather Effects - 天气效果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Note标签" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,25 @@
     <sheet name="插件参数" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="232">
   <si>
     <t>插件文档链接：</t>
   </si>
@@ -3596,6 +3609,26 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>Expand Random Spawn?</t>
+  </si>
+  <si>
+    <r>
+      <t>将随机生成位置扩展一个额外的屏幕大小？
+·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这适用于步行速度非常快的游戏，玩家可以在天气无法赶上的地方移动得足够快。
+·功率设置将分为多个设置，因此请相应地重新调整您的天气功率。</t>
+    </r>
   </si>
   <si>
     <t>Options Settings</t>
@@ -3631,7 +3664,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -3700,47 +3733,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3780,6 +3777,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3830,7 +3842,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3892,55 +3925,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3958,31 +3949,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4006,6 +3985,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4018,7 +4009,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4042,7 +4057,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4066,6 +4093,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4083,21 +4116,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4130,6 +4148,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4188,152 +4221,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4355,6 +4388,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4382,7 +4418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4391,52 +4427,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -4750,109 +4786,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="18.75" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="37.5" spans="1:3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
     </row>
     <row r="7" ht="18.75" spans="1:1">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="17"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="17"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="6"/>
-      <c r="C10" s="17"/>
+      <c r="C10" s="18"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="6"/>
-      <c r="C11" s="17"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="17"/>
+      <c r="C13" s="18"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="6"/>
-      <c r="C14" s="17"/>
+      <c r="C14" s="18"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="6"/>
-      <c r="C15" s="17"/>
+      <c r="C15" s="18"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="6"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="6"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="6"/>
     </row>
     <row r="21" ht="18.75" spans="1:1">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="6"/>
-      <c r="C22" s="17"/>
+      <c r="C22" s="18"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="6"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="6"/>
-      <c r="C25" s="17"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="6"/>
     </row>
     <row r="27" spans="2:2">
@@ -4868,78 +4904,78 @@
       <c r="B31" s="6"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="10"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="6"/>
     </row>
     <row r="34" ht="18.75" spans="1:1">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="17"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="10"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="17"/>
+      <c r="C36" s="18"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="6"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="6"/>
-      <c r="C38" s="17"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="6"/>
     </row>
     <row r="41" ht="18.75" spans="1:1">
-      <c r="A41" s="9"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" spans="3:3">
-      <c r="C42" s="17"/>
+      <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="10"/>
+      <c r="A43" s="11"/>
       <c r="B43" s="6"/>
-      <c r="C43" s="17"/>
+      <c r="C43" s="18"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="10"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="6"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="10"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="17"/>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="10"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="17"/>
+      <c r="C47" s="18"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="10"/>
+      <c r="A49" s="11"/>
     </row>
     <row r="51" ht="18.75" spans="1:1">
-      <c r="A51" s="9"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="10"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="6"/>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="10"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="6"/>
     </row>
     <row r="56" ht="18.75" spans="1:1">
-      <c r="A56" s="9"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" s="6"/>
@@ -4974,10 +5010,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5014,7 +5050,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B6" t="s">
@@ -5022,7 +5058,7 @@
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5030,22 +5066,22 @@
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="11" ht="18.75" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" s="8" customFormat="1" spans="1:4">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="9" customFormat="1" spans="1:4">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
     </row>
     <row r="13" ht="37.5" spans="1:3">
       <c r="A13" t="s">
@@ -5065,7 +5101,7 @@
       <c r="B14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5087,7 +5123,7 @@
       <c r="B16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5122,7 +5158,7 @@
       <c r="B20" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5145,15 +5181,15 @@
     <row r="23" spans="2:2">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" s="8" customFormat="1" spans="1:4">
-      <c r="A24" s="12" t="s">
+    <row r="24" s="9" customFormat="1" spans="1:4">
+      <c r="A24" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" ht="37.5" spans="1:3">
       <c r="A25" t="s">
@@ -5162,7 +5198,7 @@
       <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5173,7 +5209,7 @@
       <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5203,7 +5239,7 @@
       <c r="B29" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5250,15 +5286,15 @@
     <row r="35" customFormat="1" spans="2:2">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" s="8" customFormat="1" spans="1:4">
-      <c r="A36" s="12" t="s">
+    <row r="36" s="9" customFormat="1" spans="1:4">
+      <c r="A36" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
     </row>
     <row r="37" ht="25.5" spans="1:2">
       <c r="A37" t="s">
@@ -5315,7 +5351,7 @@
       <c r="B43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5334,7 +5370,7 @@
       <c r="B45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5345,22 +5381,22 @@
       <c r="B46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="47" customFormat="1" spans="2:2">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" s="8" customFormat="1" spans="1:4">
-      <c r="A48" s="12" t="s">
+    <row r="48" s="9" customFormat="1" spans="1:4">
+      <c r="A48" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
     </row>
     <row r="49" ht="37.5" spans="1:2">
       <c r="A49" t="s">
@@ -5454,15 +5490,15 @@
     <row r="59" customFormat="1" spans="2:2">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" s="8" customFormat="1" spans="1:4">
-      <c r="A60" s="12" t="s">
+    <row r="60" s="9" customFormat="1" spans="1:4">
+      <c r="A60" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
     </row>
     <row r="61" ht="37.5" spans="1:3">
       <c r="A61" t="s">
@@ -5550,15 +5586,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" s="8" customFormat="1" spans="1:4">
-      <c r="A72" s="12" t="s">
+    <row r="72" s="9" customFormat="1" spans="1:4">
+      <c r="A72" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
     </row>
     <row r="73" ht="25.5" spans="1:2">
       <c r="A73" t="s">
@@ -5640,15 +5676,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="84" s="8" customFormat="1" spans="1:4">
-      <c r="A84" s="12" t="s">
+    <row r="84" s="9" customFormat="1" spans="1:4">
+      <c r="A84" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
     </row>
     <row r="85" ht="25.5" spans="1:2">
       <c r="A85" t="s">
@@ -5681,7 +5717,7 @@
       <c r="B88" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C88" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5692,7 +5728,7 @@
       <c r="B89" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C89" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5719,7 +5755,7 @@
       <c r="B92" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5730,7 +5766,7 @@
       <c r="B93" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C93" s="14" t="s">
+      <c r="C93" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5741,19 +5777,19 @@
       <c r="B94" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C94" s="14" t="s">
+      <c r="C94" s="15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="96" s="8" customFormat="1" spans="1:4">
-      <c r="A96" s="12" t="s">
+    <row r="96" s="9" customFormat="1" spans="1:4">
+      <c r="A96" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
@@ -5802,7 +5838,7 @@
       <c r="B102" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="15" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5810,7 +5846,7 @@
       <c r="A103" t="s">
         <v>198</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="11" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5838,15 +5874,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" s="8" customFormat="1" spans="1:4">
-      <c r="A108" s="12" t="s">
+    <row r="108" s="9" customFormat="1" spans="1:4">
+      <c r="A108" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
@@ -5862,10 +5898,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -5919,26 +5955,26 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18.75" spans="1:4">
-      <c r="A6" s="3" t="s">
+    <row r="5" ht="51" spans="1:3">
+      <c r="A5" t="s">
         <v>220</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="C5" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18.75" spans="1:4">
+      <c r="A7" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>219</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
@@ -5951,18 +5987,29 @@
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>227</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>228</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="B10" t="s">
         <v>229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
